--- a/Planificación.xlsx
+++ b/Planificación.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A01F82-16F6-448D-A88E-F7E90897F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E445BE1-DF05-4D4C-B03D-8BB97C963AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -301,6 +301,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
@@ -543,9 +551,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,6 +616,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="1" xfId="13" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1023,8 +1031,8 @@
   </sheetPr>
   <dimension ref="B1:BO19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1047,81 +1055,81 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="33">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+    </row>
+    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-    </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="6"/>
@@ -1145,12 +1153,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1333,232 +1341,242 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>1</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>1</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="22">
-        <v>0.6</v>
+      <c r="G6" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>2</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>3</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>2</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="E8" s="20">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>4</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="E9" s="20">
+        <v>5</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>6</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>7</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>9</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>4</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>11</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>4</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>13</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>3</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>15</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>3</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>18</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>4</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>21</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>2</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>22</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>3</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>25</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>3</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Planificación.xlsx
+++ b/Planificación.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E445BE1-DF05-4D4C-B03D-8BB97C963AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C718A9D-6D62-4CDA-8C50-E60D13676153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador de proyectos" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -152,12 +149,6 @@
     </r>
   </si>
   <si>
-    <t>Evaluacion</t>
-  </si>
-  <si>
-    <t>Implementación</t>
-  </si>
-  <si>
     <t>PERIODOS(semanas)</t>
   </si>
   <si>
@@ -179,28 +170,34 @@
     <t>Preparación de datos</t>
   </si>
   <si>
-    <t>Modelado</t>
-  </si>
-  <si>
-    <t>Reproducción de modelos según fuentes bibliográficas</t>
-  </si>
-  <si>
     <t>Comparacion de modelos</t>
   </si>
   <si>
-    <t>Monitoreo del rendimiento del modelo en producción</t>
-  </si>
-  <si>
-    <t>Pruebas del sistema</t>
-  </si>
-  <si>
-    <t>Redacción del informe</t>
-  </si>
-  <si>
     <t>Proyecto de título</t>
   </si>
   <si>
     <t>Revision bibliografica</t>
+  </si>
+  <si>
+    <t>Experimentración con modelos</t>
+  </si>
+  <si>
+    <t>Experimentación con data aumgentation</t>
+  </si>
+  <si>
+    <t>Experimentacion con oversampling</t>
+  </si>
+  <si>
+    <t>Entrenamiento con todos los datos</t>
+  </si>
+  <si>
+    <t>Ajustes de arquitectura</t>
+  </si>
+  <si>
+    <t>Pruebas con otras aqrquitecturas</t>
+  </si>
+  <si>
+    <t>Comparacion de resultados</t>
   </si>
 </sst>
 </file>
@@ -590,35 +587,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="1" xfId="13" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="1" xfId="13" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1031,8 +1028,8 @@
   </sheetPr>
   <dimension ref="B1:BO19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1046,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1063,8 +1060,8 @@
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33">
-        <v>5</v>
+      <c r="H2" s="24">
+        <v>18</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="29" t="s">
@@ -1081,56 +1078,56 @@
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
       <c r="T2" s="13"/>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
       <c r="Y2" s="14"/>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="15"/>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
       <c r="AO2" s="18"/>
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
@@ -1153,12 +1150,12 @@
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="20">
         <v>1</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="20">
         <v>2</v>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="20">
         <v>2</v>
@@ -1397,12 +1394,12 @@
         <v>2</v>
       </c>
       <c r="G7" s="21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="20">
         <v>3</v>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="20">
         <v>4</v>
@@ -1433,14 +1430,16 @@
       <c r="E9" s="20">
         <v>5</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
       <c r="G9" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="20">
         <v>6</v>
@@ -1448,13 +1447,19 @@
       <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="20">
+        <v>6</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="20">
         <v>7</v>
@@ -1462,9 +1467,15 @@
       <c r="D11" s="20">
         <v>3</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="20">
+        <v>7</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
@@ -1476,75 +1487,103 @@
       <c r="D12" s="20">
         <v>4</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="20">
+        <v>8</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="20">
-        <v>4</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>13</v>
+      </c>
+      <c r="F13" s="20">
+        <v>2</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="20">
-        <v>3</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="20">
+        <v>14</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" s="20">
         <v>15</v>
       </c>
       <c r="D15" s="20">
-        <v>3</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>15</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C16" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="20">
-        <v>4</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="20">
+        <v>16</v>
+      </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -1552,10 +1591,10 @@
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="20">
         <v>3</v>
@@ -1566,10 +1605,10 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="20">
         <v>3</v>
@@ -1580,17 +1619,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="U2:X2"/>
     <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:BO20">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -1654,10 +1693,5 @@
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>